--- a/Trabajo.xlsx
+++ b/Trabajo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollo\Desktop\SIGVA-DEMO\PPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Dia</t>
   </si>
@@ -51,16 +51,57 @@
   </si>
   <si>
     <t>4h51m</t>
+  </si>
+  <si>
+    <t>Usuario Principales de prueba</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Consultor</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>Adm1n157rad0r2018@</t>
+  </si>
+  <si>
+    <t>Cosultor2018</t>
+  </si>
+  <si>
+    <t>Auditor2018</t>
+  </si>
+  <si>
+    <t>2h24m</t>
+  </si>
+  <si>
+    <t>Los campos ingreso y salida respectivamente fueron cambiados de date a datetime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,14 +124,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -369,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I5"/>
+  <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +467,61 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>43417</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Trabajo.xlsx
+++ b/Trabajo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Dia</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Los campos ingreso y salida respectivamente fueron cambiados de date a datetime</t>
+  </si>
+  <si>
+    <t>3h0m</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,6 +484,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>43417</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>9</v>

--- a/Trabajo.xlsx
+++ b/Trabajo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Dia</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>3h0m</t>
+  </si>
+  <si>
+    <t>3h57m</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,6 +498,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>43418</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>9</v>

--- a/Trabajo.xlsx
+++ b/Trabajo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Dia</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>3h57m</t>
+  </si>
+  <si>
+    <t>Se agrego una tabla ala base de datos por si posee institucion anterior.</t>
+  </si>
+  <si>
+    <t>2h0m</t>
+  </si>
+  <si>
+    <t>1h30m</t>
   </si>
 </sst>
 </file>
@@ -422,7 +431,7 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +506,9 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -510,11 +522,29 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>43418</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>43419</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
@@ -523,6 +553,15 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>43419</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>

--- a/Trabajo.xlsx
+++ b/Trabajo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Dia</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>1h30m</t>
+  </si>
+  <si>
+    <t>Se agrego el atributo unique al campo de base de datos nombre departamento</t>
+  </si>
+  <si>
+    <t>Se agrego el atributo unique al campo de base de datos Id_Puesto y se agrego la llave primaria compuesta (Id_Departamento,Nombre_puesto)</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,6 +526,9 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -533,6 +542,9 @@
       </c>
       <c r="F9" t="s">
         <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">

--- a/Trabajo.xlsx
+++ b/Trabajo.xlsx
@@ -92,9 +92,6 @@
     <t>3h57m</t>
   </si>
   <si>
-    <t>Se agrego una tabla ala base de datos por si posee institucion anterior.</t>
-  </si>
-  <si>
     <t>2h0m</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Se agrego el atributo unique al campo de base de datos Id_Puesto y se agrego la llave primaria compuesta (Id_Departamento,Nombre_puesto)</t>
+  </si>
+  <si>
+    <t>Se agrego un campo ala tabla funcionarios por si posee institucion anterior.</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -538,13 +538,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>

--- a/Trabajo.xlsx
+++ b/Trabajo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Dia</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Se agrego un campo ala tabla funcionarios por si posee institucion anterior.</t>
+  </si>
+  <si>
+    <t>4h0m</t>
+  </si>
+  <si>
+    <t>8h0m</t>
+  </si>
+  <si>
+    <t>Se agrego la tabla Anos_Institucion_Anterior</t>
   </si>
 </sst>
 </file>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I13"/>
+  <dimension ref="B3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +572,9 @@
       <c r="H10" t="s">
         <v>11</v>
       </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -582,6 +594,15 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>43421</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
@@ -590,11 +611,53 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>43423</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>43424</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>43425</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>43426</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo.xlsx
+++ b/Trabajo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Dia</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Se agrego la tabla Anos_Institucion_Anterior</t>
+  </si>
+  <si>
+    <t>Se modifico el listview de A_Personal</t>
+  </si>
+  <si>
+    <t>Por una serie de campos.</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
   <dimension ref="B3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,6 +598,9 @@
       <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
@@ -608,6 +617,9 @@
       </c>
       <c r="H12" t="s">
         <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">

--- a/Trabajo.xlsx
+++ b/Trabajo.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="B3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
